--- a/dashboard/indicators for dashboard.xlsx
+++ b/dashboard/indicators for dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\ERP\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F44B097-0478-49C7-9383-959E174C1C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB142736-33E1-46D0-B5E2-717BEA2F462A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2404,7 +2404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2779,17 +2779,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EQ67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
+      <selection activeCell="DH3" sqref="DH3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="30" max="30" width="12.21875" customWidth="1"/>
     <col min="32" max="32" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" ht="115.2">
+    <row r="1" spans="1:147" ht="115.2" x14ac:dyDescent="0.3">
       <c r="AD1" s="3" t="s">
         <v>706</v>
       </c>
@@ -2843,12 +2843,12 @@
       <c r="BT1" s="7"/>
       <c r="BU1" s="7"/>
     </row>
-    <row r="2" spans="1:147" ht="43.2">
+    <row r="2" spans="1:147" ht="43.2" x14ac:dyDescent="0.3">
       <c r="AD2" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:147" s="2" customFormat="1" ht="72">
+    <row r="3" spans="1:147" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="4" spans="1:147">
+    <row r="4" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:147">
+    <row r="5" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:147">
+    <row r="6" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:147">
+    <row r="7" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:147">
+    <row r="8" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:147">
+    <row r="9" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:147">
+    <row r="10" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:147">
+    <row r="11" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:147">
+    <row r="12" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:147">
+    <row r="13" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:147">
+    <row r="14" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:147">
+    <row r="15" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:147">
+    <row r="16" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:147">
+    <row r="17" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:147">
+    <row r="18" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:147">
+    <row r="19" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:147">
+    <row r="20" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:147">
+    <row r="21" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:147">
+    <row r="22" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:147">
+    <row r="23" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:147">
+    <row r="24" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:147">
+    <row r="25" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:147">
+    <row r="26" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:147">
+    <row r="27" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:147">
+    <row r="28" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:147">
+    <row r="29" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:147">
+    <row r="30" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:147">
+    <row r="31" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:147">
+    <row r="32" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:147">
+    <row r="33" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:147">
+    <row r="34" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:147">
+    <row r="35" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:147">
+    <row r="36" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:147">
+    <row r="37" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:147">
+    <row r="38" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:147">
+    <row r="39" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:147">
+    <row r="40" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:147">
+    <row r="41" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:147">
+    <row r="42" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:147">
+    <row r="43" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:147">
+    <row r="44" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:147">
+    <row r="45" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:147">
+    <row r="46" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -19416,7 +19416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:147">
+    <row r="47" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -19838,7 +19838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:147">
+    <row r="48" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:147">
+    <row r="49" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:147">
+    <row r="50" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:147">
+    <row r="51" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:147">
+    <row r="52" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:147">
+    <row r="53" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:147">
+    <row r="54" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:147">
+    <row r="55" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:147">
+    <row r="56" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -23192,7 +23192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:147">
+    <row r="57" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:147">
+    <row r="58" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -23994,7 +23994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:147">
+    <row r="59" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:147">
+    <row r="60" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:147">
+    <row r="61" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:147">
+    <row r="62" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -25580,7 +25580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:147">
+    <row r="63" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -25984,7 +25984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:147">
+    <row r="64" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -26340,7 +26340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:147">
+    <row r="65" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -26750,7 +26750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:147">
+    <row r="66" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -27172,7 +27172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:147">
+    <row r="67" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>57</v>
       </c>
